--- a/lingvo2/dictionaries/days of the week/days of the week.xlsx
+++ b/lingvo2/dictionaries/days of the week/days of the week.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>monday</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Monday’s child is nice and slow_Ребенок понедельника милый и медлительный</t>
+  </si>
+  <si>
+    <t>localVideo</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,6 +863,11 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
